--- a/241022/Assets/TableData/UnitTable.xlsx
+++ b/241022/Assets/TableData/UnitTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\tmp\241022\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEF1BE8-86EF-4E25-A0FB-8AEDCB544D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D3335-CE6F-4822-B2FA-C2E920995A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29870" yWindow="2290" windowWidth="26510" windowHeight="17470" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
+    <workbookView xWindow="8320" yWindow="3530" windowWidth="26510" windowHeight="17470" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>! 키</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,10 @@
   </si>
   <si>
     <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +494,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -540,7 +544,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -560,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>

--- a/241022/Assets/TableData/UnitTable.xlsx
+++ b/241022/Assets/TableData/UnitTable.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\tmp\241022\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19D3335-CE6F-4822-B2FA-C2E920995A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D7E3E4-AAA2-472B-BF48-BD644D5415F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8320" yWindow="3530" windowWidth="26510" windowHeight="17470" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
+    <workbookView xWindow="3530" yWindow="3860" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="UnitDataT" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>! 키</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,69 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! 애니메이션 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Animations/Boomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimPath_Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimPath_Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimPath_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimPath_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boomer/Animation/bomb_hold_side-overlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boomer/Animation/bomb</t>
+  </si>
+  <si>
+    <t>Animations/Hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammer/Animation/hammer_attack_side-overlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!스프라이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Arm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite_Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boomer/Sprite/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,15 +554,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B156AA-D5B5-4D60-BDD4-063A67F499F5}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.58203125" customWidth="1"/>
+    <col min="12" max="12" width="16.4140625" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="15.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +591,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -538,8 +617,32 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -558,13 +661,37 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -578,13 +705,25 @@
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -598,13 +737,19 @@
       <c r="F5">
         <v>20</v>
       </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>

--- a/241022/Assets/TableData/UnitTable.xlsx
+++ b/241022/Assets/TableData/UnitTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\tmp\241022\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D7E3E4-AAA2-472B-BF48-BD644D5415F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D841EDB-8FB4-4DA1-9A61-CB701BA43A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3530" yWindow="3860" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
+    <workbookView xWindow="8630" yWindow="3930" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDataT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>! 키</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,66 +110,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>! 애니메이션 경로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Animations/Boomer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimPath_Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimPath_Arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimPath_Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimPath_Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boomer/Animation/bomb_hold_side-overlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boomer/Animation/bomb</t>
-  </si>
-  <si>
-    <t>Animations/Hammer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hammer/Animation/hammer_attack_side-overlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!스프라이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_Arm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sprite_Bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boomer/Sprite/</t>
+    <t>! 소환비용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B156AA-D5B5-4D60-BDD4-063A67F499F5}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -572,7 +517,7 @@
     <col min="14" max="14" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,11 +539,8 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -618,31 +560,10 @@
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -662,31 +583,10 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -705,20 +605,11 @@
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
+      <c r="G4">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -737,14 +628,11 @@
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
+      <c r="G5">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -762,6 +650,9 @@
       </c>
       <c r="F6">
         <v>8</v>
+      </c>
+      <c r="G6">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/241022/Assets/TableData/UnitTable.xlsx
+++ b/241022/Assets/TableData/UnitTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\tmp\241022\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D841EDB-8FB4-4DA1-9A61-CB701BA43A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED8F7A8-6B66-4A46-8D6A-F0D6CC52E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8630" yWindow="3930" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
+    <workbookView xWindow="-29380" yWindow="3730" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDataT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>! 키</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! 공격범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B156AA-D5B5-4D60-BDD4-063A67F499F5}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -517,7 +525,7 @@
     <col min="14" max="14" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +547,11 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -562,8 +573,11 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -585,8 +599,11 @@
       <c r="G3" t="s">
         <v>9</v>
       </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -608,8 +625,11 @@
       <c r="G4">
         <v>20</v>
       </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -631,8 +651,11 @@
       <c r="G5">
         <v>40</v>
       </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -653,6 +676,9 @@
       </c>
       <c r="G6">
         <v>80</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/241022/Assets/TableData/UnitTable.xlsx
+++ b/241022/Assets/TableData/UnitTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\tmp\241022\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED8F7A8-6B66-4A46-8D6A-F0D6CC52E6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959A74C9-F6B0-4B68-8541-7B1B162CCD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29380" yWindow="3730" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
+    <workbookView xWindow="-28820" yWindow="2490" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDataT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>! 키</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,18 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,6 +111,60 @@
   </si>
   <si>
     <t>AttackDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! 유닛타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>! 해금 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eUnitType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eLockOnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버서커</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swordsman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bower</t>
+  </si>
+  <si>
+    <t>Barbarian</t>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B156AA-D5B5-4D60-BDD4-063A67F499F5}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -525,7 +567,7 @@
     <col min="14" max="14" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,82 +587,100 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -628,57 +688,107 @@
       <c r="H4">
         <v>2</v>
       </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
       <c r="F5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>1.5</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>80</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/241022/Assets/TableData/UnitTable.xlsx
+++ b/241022/Assets/TableData/UnitTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\tmp\241022\Assets\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959A74C9-F6B0-4B68-8541-7B1B162CCD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AC3E5-C233-493B-8C3B-FF495F898EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28820" yWindow="2490" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
+    <workbookView xWindow="-29370" yWindow="3630" windowWidth="28800" windowHeight="15460" xr2:uid="{3A4C3F8C-8AAE-43C2-B2D6-7DC2B24840FD}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitDataT" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>! 키</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,26 +114,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>! 유닛타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>! 해금 방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eUnitType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eLockOnType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,7 +138,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Swordsman</t>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockOnType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!프리팹 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,12 +163,34 @@
   </si>
   <si>
     <t>Bower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Barbarian</t>
-  </si>
-  <si>
-    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!초상화 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PortraitPath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portraits/Swordsman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portraits/Magician</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portraits/Bower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portraits/Barbarian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B156AA-D5B5-4D60-BDD4-063A67F499F5}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -567,7 +593,7 @@
     <col min="14" max="14" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,10 +622,13 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -625,13 +654,16 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -657,13 +689,16 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -671,7 +706,7 @@
         <v>1.3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -689,13 +724,16 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -703,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -721,13 +759,16 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -735,7 +776,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -753,13 +794,16 @@
         <v>6</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -767,7 +811,7 @@
         <v>1.5</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -785,10 +829,13 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
